--- a/biology/Médecine/Osselet_de_l'ouïe/Osselet_de_l'ouïe.xlsx
+++ b/biology/Médecine/Osselet_de_l'ouïe/Osselet_de_l'ouïe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Osselet_de_l%27ou%C3%AFe</t>
+          <t>Osselet_de_l'ouïe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les mammifères, les osselets de l'ouïe (ou chaîne des osselets) sont trois petits os qui appartiennent à l'oreille moyenne et sont contenus dans la partie pétreuse de l'os temporal. Chez l'humain, ce sont de l'extérieur vers l'intérieur : le marteau (ou malleus), l'enclume (ou incus) et l'étrier (ou stapes). 
 Ce sont les trois plus petits des os du squelette (l'enclume mesure 3mm).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Osselet_de_l%27ou%C3%AFe</t>
+          <t>Osselet_de_l'ouïe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Osselet_de_l%27ou%C3%AFe</t>
+          <t>Osselet_de_l'ouïe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +553,9 @@
           <t>Articulations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation Incudo-malléaire est entre le marteau et l'enclume. C'est une diarthrose avec synoviale par emboitement réciproque (toroïde). Il existe un ménisque et son ossification débute à l'âge de 15 ans.
 L'articulation Incudo-stapédienne est entre l'apophyse lenticulaire de l'enclume et la tête de l'étrier. C'est une énarthrose avec synoviale.
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Osselet_de_l%27ou%C3%AFe</t>
+          <t>Osselet_de_l'ouïe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Ligaments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La chaîne des osselets est fixée au tympan en dehors et au labyrinthe en dedans, mais elle est aussi suspendue par des ligaments.
 Le marteau est maintenu par trois ligaments :
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Osselet_de_l%27ou%C3%AFe</t>
+          <t>Osselet_de_l'ouïe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Muscles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux muscles qui agissent sur les osselets.
 Le muscle du marteau naît du canal qui le contient et du sphénoïde, il s'étend dans le canal osseux qui le contient au-dessus de la trompe d'Eustache. Il s'attache par un tendon sur la partie haute et interne du manche du marteau après avoir fait un angle droit sur le bec de cuillère à la sortie du tube qui le protège. Sa contraction tend la chaine tympano-ossiculaire en venant pousser vers l'intérieur l'étrier dans la fenêtre ovale. Il mesure 2 cm en moyenne.
